--- a/Informatie verzamelen/vakken.xlsx
+++ b/Informatie verzamelen/vakken.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linsey\Documents\Linsey\uva\programmeren\heuristieken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linsey\Desktop\Heuristieken\Informatie verzamelen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>Vakken voor periode 4</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>#Studenten</t>
-  </si>
-  <si>
-    <t>#werkgroepen</t>
   </si>
 </sst>
 </file>
@@ -538,19 +535,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="9" width="14.42578125" customWidth="1"/>
+    <col min="2" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,19 +564,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -596,20 +587,13 @@
         <v>6</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
         <v>10</v>
       </c>
-      <c r="I2" s="6">
-        <f>ROUNDUP(B2/H2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -626,21 +610,13 @@
         <v>25</v>
       </c>
       <c r="F3" s="5">
-        <f>ROUNDUP(B3/E3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
         <v>25</v>
       </c>
-      <c r="I3" s="6">
-        <f t="shared" ref="I3:I30" si="0">ROUNDUP(B3/H3,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -659,17 +635,11 @@
       <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -688,17 +658,11 @@
       <c r="F5" s="5">
         <v>0</v>
       </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -715,21 +679,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ref="F6:F29" si="1">ROUNDUP(B6/E6,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
         <v>10</v>
       </c>
-      <c r="I6" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -746,21 +702,13 @@
         <v>20</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>20</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -777,20 +725,13 @@
         <v>40</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -807,21 +748,13 @@
         <v>20</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>20</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -838,21 +771,13 @@
         <v>40</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
         <v>40</v>
       </c>
-      <c r="I10" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -869,20 +794,13 @@
         <v>6</v>
       </c>
       <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
         <v>15</v>
       </c>
-      <c r="I11" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -899,21 +817,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
         <v>10</v>
       </c>
-      <c r="I12" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -930,20 +840,13 @@
         <v>40</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -960,20 +863,13 @@
         <v>25</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -990,20 +886,13 @@
         <v>20</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1020,21 +909,13 @@
         <v>15</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
         <v>15</v>
       </c>
-      <c r="I16" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1053,17 +934,11 @@
       <c r="F17" s="5">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1082,17 +957,11 @@
       <c r="F18" s="5">
         <v>0</v>
       </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1111,17 +980,11 @@
       <c r="F19" s="5">
         <v>0</v>
       </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1140,17 +1003,11 @@
       <c r="F20" s="5">
         <v>0</v>
       </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1167,21 +1024,13 @@
         <v>20</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="6">
-        <v>20</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1198,20 +1047,13 @@
         <v>6</v>
       </c>
       <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-      <c r="H22" s="6">
-        <v>20</v>
-      </c>
-      <c r="I22" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1228,20 +1070,13 @@
         <v>6</v>
       </c>
       <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6">
-        <v>20</v>
-      </c>
-      <c r="I23" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1258,20 +1093,13 @@
         <v>6</v>
       </c>
       <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
         <v>15</v>
       </c>
-      <c r="I24" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1288,20 +1116,13 @@
         <v>6</v>
       </c>
       <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
         <v>15</v>
       </c>
-      <c r="I25" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1318,20 +1139,13 @@
         <v>20</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1348,21 +1162,13 @@
         <v>40</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
         <v>40</v>
       </c>
-      <c r="I27" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1379,20 +1185,13 @@
         <v>20</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1409,21 +1208,13 @@
         <v>20</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
-      <c r="H29" s="6">
-        <v>20</v>
-      </c>
-      <c r="I29" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1440,17 +1231,10 @@
         <v>6</v>
       </c>
       <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
-      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
         <v>15</v>
-      </c>
-      <c r="I30" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Informatie verzamelen/vakken.xlsx
+++ b/Informatie verzamelen/vakken.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Vakken voor periode 4</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Zoeken, sturen en bewegen</t>
-  </si>
-  <si>
-    <t>#Studenten</t>
   </si>
 </sst>
 </file>
@@ -229,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -251,9 +248,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,705 +529,615 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="7" width="14.42578125" customWidth="1"/>
+    <col min="2" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>35</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
-        <v>20</v>
+      <c r="B2" s="3">
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
-        <v>43</v>
+      <c r="B3" s="3">
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
         <v>25</v>
       </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
-        <v>49</v>
+      <c r="B4" s="3">
+        <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
-        <v>21</v>
+      <c r="B5" s="3">
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6">
-        <v>22</v>
+      <c r="B6" s="3">
+        <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6">
-        <v>45</v>
+      <c r="B7" s="3">
+        <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6">
-        <v>106</v>
+      <c r="B8" s="3">
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
         <v>40</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6">
-        <v>61</v>
+      <c r="B9" s="3">
+        <v>3</v>
       </c>
       <c r="C9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6">
-        <v>107</v>
+      <c r="B10" s="3">
+        <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
         <v>40</v>
       </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
-        <v>40</v>
+      <c r="B11" s="3">
+        <v>0</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6">
-        <v>27</v>
+      <c r="B12" s="3">
+        <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6">
-        <v>72</v>
+      <c r="B13" s="3">
+        <v>1</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
         <v>40</v>
       </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6">
-        <v>44</v>
+      <c r="B14" s="3">
+        <v>1</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
         <v>25</v>
       </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="6">
-        <v>74</v>
+      <c r="B15" s="3">
+        <v>1</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>20</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="6">
-        <v>21</v>
+      <c r="B16" s="3">
+        <v>2</v>
       </c>
       <c r="C16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
         <v>15</v>
       </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="6">
-        <v>25</v>
+      <c r="B17" s="3">
+        <v>2</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="6">
-        <v>84</v>
+      <c r="B18" s="3">
+        <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="6">
-        <v>54</v>
+      <c r="B19" s="3">
+        <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="6">
-        <v>22</v>
+      <c r="B20" s="3">
+        <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="6">
-        <v>54</v>
+      <c r="B21" s="3">
+        <v>1</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>20</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="6">
-        <v>64</v>
+      <c r="B22" s="3">
+        <v>0</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="6">
-        <v>110</v>
+      <c r="B23" s="3">
+        <v>0</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="6">
-        <v>36</v>
+      <c r="B24" s="3">
+        <v>0</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="D24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="6">
-        <v>44</v>
+      <c r="B25" s="3">
+        <v>0</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="6">
-        <v>51</v>
+      <c r="B26" s="3">
+        <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>20</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="6">
-        <v>75</v>
+      <c r="B27" s="3">
+        <v>1</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
         <v>40</v>
       </c>
-      <c r="F27" s="5">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="6">
-        <v>38</v>
+      <c r="B28" s="3">
+        <v>2</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>20</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="6">
-        <v>39</v>
+      <c r="B29" s="3">
+        <v>2</v>
       </c>
       <c r="C29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>20</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="6">
-        <v>42</v>
+      <c r="B30" s="3">
+        <v>0</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
       </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="D30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
         <v>15</v>
       </c>
     </row>
